--- a/ejemplos/modelos_arbol_individual-masas_mixtas/PhalepensisPpinaster_IFN_3_parcelas.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_mixtas/PhalepensisPpinaster_IFN_3_parcelas.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,70 +371,75 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_sp1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ID_sp2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -452,42 +457,45 @@
         </is>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
         <v>26</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>18</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>578.0507533097639</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>22.35403472222222</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8.697452328393817</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-5.361256108377778</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>36.67965262727999</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>33.62503265081438</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>30.17301030476131</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>28.09493271787919</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>27.30787369771438</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>25.77681194106279</v>
       </c>
     </row>
@@ -503,39 +511,42 @@
         </is>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
         <v>26</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>933.2845862908742</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>32.91423513888889</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>12.73282009352535</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.52404154837983</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>40.11917823958341</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>17.07721906037416</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>16.20578781796761</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>15.32587227477558</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>14.71279161056925</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>13.87305091895621</v>
       </c>
     </row>
@@ -551,39 +562,42 @@
         </is>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
         <v>26</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>100.5859240340778</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3.3699035</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>7.416732472209317</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.5836198273037192</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>40.09341336492567</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>17.19569006413909</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>16.91022958161621</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>15.93512402457885</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>15.3267325586974</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>14.40697108346156</v>
       </c>
     </row>
